--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H2">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I2">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J2">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N2">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O2">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P2">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q2">
-        <v>1.569145992337228</v>
+        <v>3.496107608313667</v>
       </c>
       <c r="R2">
-        <v>1.569145992337228</v>
+        <v>31.464968474823</v>
       </c>
       <c r="S2">
-        <v>0.001004435552925723</v>
+        <v>0.001494196811103169</v>
       </c>
       <c r="T2">
-        <v>0.001004435552925723</v>
+        <v>0.002022787758677161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H3">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I3">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J3">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P3">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q3">
-        <v>19.25751720507447</v>
+        <v>24.73631877463567</v>
       </c>
       <c r="R3">
-        <v>19.25751720507447</v>
+        <v>222.626868971721</v>
       </c>
       <c r="S3">
-        <v>0.0123270460723954</v>
+        <v>0.01057202259552875</v>
       </c>
       <c r="T3">
-        <v>0.0123270460723954</v>
+        <v>0.01431200878745373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H4">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I4">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J4">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N4">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O4">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P4">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q4">
-        <v>4.137770915695437</v>
+        <v>5.150158916741667</v>
       </c>
       <c r="R4">
-        <v>4.137770915695437</v>
+        <v>46.351430250675</v>
       </c>
       <c r="S4">
-        <v>0.00264865362297871</v>
+        <v>0.002201119614216272</v>
       </c>
       <c r="T4">
-        <v>0.00264865362297871</v>
+        <v>0.002979793410035223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H5">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I5">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J5">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N5">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O5">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P5">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q5">
-        <v>3.609414164871891</v>
+        <v>5.411787944659666</v>
       </c>
       <c r="R5">
-        <v>3.609414164871891</v>
+        <v>48.706091501937</v>
       </c>
       <c r="S5">
-        <v>0.002310443980442509</v>
+        <v>0.002312936898752218</v>
       </c>
       <c r="T5">
-        <v>0.002310443980442509</v>
+        <v>0.003131167467781232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H6">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I6">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J6">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N6">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O6">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P6">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q6">
-        <v>39.5597370442493</v>
+        <v>73.3827049024635</v>
       </c>
       <c r="R6">
-        <v>39.5597370442493</v>
+        <v>440.296229414781</v>
       </c>
       <c r="S6">
-        <v>0.02532282308063099</v>
+        <v>0.03136293728335045</v>
       </c>
       <c r="T6">
-        <v>0.02532282308063099</v>
+        <v>0.02830531432963528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H7">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J7">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N7">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O7">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P7">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q7">
-        <v>12.42633640947145</v>
+        <v>25.88738358186644</v>
       </c>
       <c r="R7">
-        <v>12.42633640947145</v>
+        <v>232.986452236798</v>
       </c>
       <c r="S7">
-        <v>0.007954297524411671</v>
+        <v>0.01106397466252102</v>
       </c>
       <c r="T7">
-        <v>0.007954297524411671</v>
+        <v>0.01497799509633442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H8">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J8">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P8">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q8">
-        <v>152.5035837137144</v>
+        <v>183.1632902258384</v>
       </c>
       <c r="R8">
-        <v>152.5035837137144</v>
+        <v>1648.469612032546</v>
       </c>
       <c r="S8">
-        <v>0.09761999340958638</v>
+        <v>0.0782819165851195</v>
       </c>
       <c r="T8">
-        <v>0.09761999340958638</v>
+        <v>0.1059751308646267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H9">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J9">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N9">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O9">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P9">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q9">
-        <v>32.76771800383763</v>
+        <v>38.13502166472778</v>
       </c>
       <c r="R9">
-        <v>32.76771800383763</v>
+        <v>343.21519498255</v>
       </c>
       <c r="S9">
-        <v>0.02097514260115156</v>
+        <v>0.01629847651922567</v>
       </c>
       <c r="T9">
-        <v>0.02097514260115156</v>
+        <v>0.02206426793525025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H10">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J10">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N10">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O10">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P10">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q10">
-        <v>28.58357021771013</v>
+        <v>40.0722878363291</v>
       </c>
       <c r="R10">
-        <v>28.58357021771013</v>
+        <v>360.6505905269619</v>
       </c>
       <c r="S10">
-        <v>0.01829680239851559</v>
+        <v>0.01712644214848185</v>
       </c>
       <c r="T10">
-        <v>0.01829680239851559</v>
+        <v>0.02318513683753918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H11">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J11">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N11">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O11">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P11">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q11">
-        <v>313.2803468782814</v>
+        <v>543.3717845433511</v>
       </c>
       <c r="R11">
-        <v>313.2803468782814</v>
+        <v>3260.230707260106</v>
       </c>
       <c r="S11">
-        <v>0.2005357818674037</v>
+        <v>0.2322309490066675</v>
       </c>
       <c r="T11">
-        <v>0.2005357818674037</v>
+        <v>0.2095903820906727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H12">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I12">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J12">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N12">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O12">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P12">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q12">
-        <v>6.718617534131377</v>
+        <v>12.71537039351367</v>
       </c>
       <c r="R12">
-        <v>6.718617534131377</v>
+        <v>114.438333541623</v>
       </c>
       <c r="S12">
-        <v>0.004300694996352766</v>
+        <v>0.005434405350911949</v>
       </c>
       <c r="T12">
-        <v>0.004300694996352766</v>
+        <v>0.007356894712817954</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H13">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I13">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J13">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P13">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q13">
-        <v>82.45497448273375</v>
+        <v>89.96618257503567</v>
       </c>
       <c r="R13">
-        <v>82.45497448273375</v>
+        <v>809.695643175321</v>
       </c>
       <c r="S13">
-        <v>0.05278075353758539</v>
+        <v>0.03845052789310001</v>
       </c>
       <c r="T13">
-        <v>0.05278075353758539</v>
+        <v>0.05205288658019172</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H14">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I14">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J14">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N14">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O14">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P14">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q14">
-        <v>17.71670728037372</v>
+        <v>18.73116778674167</v>
       </c>
       <c r="R14">
-        <v>17.71670728037372</v>
+        <v>168.580510080675</v>
       </c>
       <c r="S14">
-        <v>0.01134074889149062</v>
+        <v>0.008005489049774337</v>
       </c>
       <c r="T14">
-        <v>0.01134074889149062</v>
+        <v>0.01083753166368489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H15">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I15">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J15">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N15">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O15">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P15">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q15">
-        <v>15.45444045007559</v>
+        <v>19.68271458345966</v>
       </c>
       <c r="R15">
-        <v>15.45444045007559</v>
+        <v>177.144431251137</v>
       </c>
       <c r="S15">
-        <v>0.009892635557452496</v>
+        <v>0.008412169377888513</v>
       </c>
       <c r="T15">
-        <v>0.009892635557452496</v>
+        <v>0.01138808028170584</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H16">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I16">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J16">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N16">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O16">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P16">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q16">
-        <v>169.3830556551549</v>
+        <v>266.8934649190635</v>
       </c>
       <c r="R16">
-        <v>169.3830556551549</v>
+        <v>1601.360789514381</v>
       </c>
       <c r="S16">
-        <v>0.1084248145131612</v>
+        <v>0.114067245309619</v>
       </c>
       <c r="T16">
-        <v>0.1084248145131612</v>
+        <v>0.1029466469940108</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H17">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I17">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J17">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N17">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O17">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P17">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q17">
-        <v>9.194096969542592</v>
+        <v>18.71954173696678</v>
       </c>
       <c r="R17">
-        <v>9.194096969542592</v>
+        <v>168.475875632701</v>
       </c>
       <c r="S17">
-        <v>0.005885289143491339</v>
+        <v>0.008000520207723232</v>
       </c>
       <c r="T17">
-        <v>0.005885289143491339</v>
+        <v>0.0108308050311549</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H18">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I18">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J18">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P18">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q18">
-        <v>112.8355688003046</v>
+        <v>132.4480260903808</v>
       </c>
       <c r="R18">
-        <v>112.8355688003046</v>
+        <v>1192.032234813427</v>
       </c>
       <c r="S18">
-        <v>0.0722278599257737</v>
+        <v>0.0566067868593479</v>
       </c>
       <c r="T18">
-        <v>0.0722278599257737</v>
+        <v>0.0766321509096234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H19">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I19">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J19">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N19">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O19">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P19">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q19">
-        <v>24.24444074830291</v>
+        <v>27.57598609513611</v>
       </c>
       <c r="R19">
-        <v>24.24444074830291</v>
+        <v>248.183874856225</v>
       </c>
       <c r="S19">
-        <v>0.01551925593113521</v>
+        <v>0.01178566425941685</v>
       </c>
       <c r="T19">
-        <v>0.01551925593113521</v>
+        <v>0.01595499148082526</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H20">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I20">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J20">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N20">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O20">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P20">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q20">
-        <v>21.14864008647378</v>
+        <v>28.97685130193544</v>
       </c>
       <c r="R20">
-        <v>21.14864008647378</v>
+        <v>260.7916617174189</v>
       </c>
       <c r="S20">
-        <v>0.01353758420352206</v>
+        <v>0.01238437818910466</v>
       </c>
       <c r="T20">
-        <v>0.01353758420352206</v>
+        <v>0.01676550800644137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H21">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I21">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J21">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N21">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O21">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P21">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q21">
-        <v>231.7923636491483</v>
+        <v>392.9200016402744</v>
       </c>
       <c r="R21">
-        <v>231.7923636491483</v>
+        <v>2357.520009841647</v>
       </c>
       <c r="S21">
-        <v>0.1483740149628198</v>
+        <v>0.1679295603125715</v>
       </c>
       <c r="T21">
-        <v>0.1483740149628198</v>
+        <v>0.1515578386979766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H22">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I22">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J22">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N22">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O22">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P22">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q22">
-        <v>6.070330548221394</v>
+        <v>12.10344264561033</v>
       </c>
       <c r="R22">
-        <v>6.070330548221394</v>
+        <v>72.620655873662</v>
       </c>
       <c r="S22">
-        <v>0.00388571608404828</v>
+        <v>0.005172874359311913</v>
       </c>
       <c r="T22">
-        <v>0.00388571608404828</v>
+        <v>0.00466856255857655</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H23">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I23">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J23">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N23">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O23">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P23">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q23">
-        <v>74.49880096799787</v>
+        <v>85.63655616331233</v>
       </c>
       <c r="R23">
-        <v>74.49880096799787</v>
+        <v>513.8193369798739</v>
       </c>
       <c r="S23">
-        <v>0.0476878790807329</v>
+        <v>0.03660009458198533</v>
       </c>
       <c r="T23">
-        <v>0.0476878790807329</v>
+        <v>0.03303189278089212</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H24">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I24">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J24">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N24">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O24">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P24">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q24">
-        <v>16.00720220664461</v>
+        <v>17.82972953015833</v>
       </c>
       <c r="R24">
-        <v>16.00720220664461</v>
+        <v>106.97837718095</v>
       </c>
       <c r="S24">
-        <v>0.01024646723615348</v>
+        <v>0.007620224544416934</v>
       </c>
       <c r="T24">
-        <v>0.01024646723615348</v>
+        <v>0.006877316657028401</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H25">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I25">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J25">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N25">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O25">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P25">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q25">
-        <v>13.96322405512416</v>
+        <v>18.73548309629633</v>
       </c>
       <c r="R25">
-        <v>13.96322405512416</v>
+        <v>112.412898577778</v>
       </c>
       <c r="S25">
-        <v>0.008938083991499136</v>
+        <v>0.008007333364222831</v>
       </c>
       <c r="T25">
-        <v>0.008938083991499136</v>
+        <v>0.00722668561840425</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H26">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I26">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J26">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N26">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O26">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P26">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q26">
-        <v>153.0390935145715</v>
+        <v>254.0492054233785</v>
       </c>
       <c r="R26">
-        <v>153.0390935145715</v>
+        <v>1016.196821693514</v>
       </c>
       <c r="S26">
-        <v>0.09796278183433955</v>
+        <v>0.1085777542156388</v>
       </c>
       <c r="T26">
-        <v>0.09796278183433955</v>
+        <v>0.06532822344865993</v>
       </c>
     </row>
   </sheetData>
